--- a/repo/12306Cnp.xlsx
+++ b/repo/12306Cnp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ath_user" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="221">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,303 +210,1544 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>safe_salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id(权限id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_rol_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rol_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rol_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息登记表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车次基础订单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odr_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odr_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odr_idt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpt_start_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpt_end_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发车时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_statue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支付状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态（0：未支付，1：支付，2：过期）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型（0：火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，1汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次对应所拥有座位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型（0：火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，1汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别（0：火车，1汽车，2飞机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>座位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vip特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员信息表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_decript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_out_ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出票(0:未出票，1：已出票）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次空余对应坐席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus_ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位、月）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票价(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位，元）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_user(
+                 user_id int NOT NULL AUTO_INCREMENT,
+                 user_name varchar(11) NOT NULL,
+                 user_password varchar(16) NOT NULL,
+                 user_safe_id int NOT NULL unique,
+                 is_delete int default 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`user_id`,`user_name`)
+             )ENGINE=InnoDB AUTO_INCREMENT=100086 DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>safe_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>safe_salt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ath_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id(权限id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ath_rol_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rol_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rol_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息登记表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idt_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idt_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车次基础订单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>odr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>odr_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>odr_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idt_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idt_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>户id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>odr_idt_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpt_start_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpt_end_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发车时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_statue</t>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_safe(
+                 safe_id int NOT NULL,
+                 safe_salt varchar(32) NOT NULL,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`safe_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_count_month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_start_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_end_dtm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,1201 +1755,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>支付状</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>态（0：未支付，1：支付，2：过期）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>默</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>认</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否删</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>型（0：火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，1汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次对应所拥有座位类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>型（0：火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，1汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类别（0：火车，1汽车，2飞机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>座位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类别id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vip特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>权</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员信息表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_decript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_out_ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出票(0:未出票，1：已出票）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次空余对应坐席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surplus_ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位、月）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>始日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>束日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_count_month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>票价(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位，元）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_money</t>
+    <t>激活状态(0:未激活，1：激活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_statue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_vp(
+                 user_id int NOT NULL,
+                 vp_id int NOT NULL DEFAULT 0 ,
+                 vp_statue int NOT NULL DEFAULT 0,
+                 vp_count_month int NOT NULL,
+                 vp_start_dtm DateTime NOT NULL,
+                 vp_end_dtm DateTime NOT NULL,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`user_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1840,7 +1919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1869,15 +1948,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2169,13 +2257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -2185,7 +2273,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2195,7 +2283,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2239,7 +2327,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2348,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2277,7 +2365,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -2296,7 +2384,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -2313,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2328,9 +2416,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
@@ -2343,7 +2431,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2358,9 +2446,9 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1">
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
@@ -2373,9 +2461,183 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,11 +2649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -2402,9 +2664,9 @@
     <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2413,7 +2675,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2433,21 +2695,21 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -2457,15 +2719,15 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -2476,7 +2738,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2484,29 +2746,29 @@
         <v>18</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2514,22 +2776,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2553,16 +2815,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2571,7 +2833,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,18 +2853,18 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -2615,18 +2877,18 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>12</v>
@@ -2636,15 +2898,15 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>12</v>
@@ -2653,22 +2915,22 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2676,29 +2938,29 @@
         <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -2706,22 +2968,22 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2745,16 +3007,16 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2763,7 +3025,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2783,18 +3045,18 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -2807,35 +3069,35 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2843,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2851,52 +3113,52 @@
         <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2920,16 +3182,16 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2938,7 +3200,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2958,18 +3220,18 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -2982,15 +3244,15 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -2999,7 +3261,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3007,29 +3269,29 @@
         <v>18</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -3037,22 +3299,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -3073,19 +3335,19 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3094,7 +3356,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3114,88 +3376,88 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3204,60 +3466,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1">
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3276,13 +3538,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -3291,7 +3553,7 @@
     <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -3301,7 +3563,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3321,9 +3583,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
@@ -3341,9 +3603,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -3351,11 +3613,13 @@
       <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3369,9 +3633,9 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
@@ -3383,7 +3647,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -3397,9 +3661,9 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1">
+    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
@@ -3411,9 +3675,202 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,22 +3879,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3446,7 +3903,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3469,9 +3926,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -3490,15 +3947,15 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -3509,123 +3966,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>198</v>
+        <v>216</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3637,16 +4225,16 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3655,7 +4243,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3678,15 +4266,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -3699,77 +4287,77 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -3793,16 +4381,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3811,7 +4399,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3834,15 +4422,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -3855,127 +4443,127 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -3990,22 +4578,22 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4013,14 +4601,14 @@
         <v>18</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" thickBot="1">
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -4028,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4052,7 +4640,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -4062,9 +4650,9 @@
     <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4072,7 +4660,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4092,15 +4680,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
@@ -4110,15 +4698,15 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
@@ -4126,12 +4714,12 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -4140,7 +4728,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -4154,7 +4742,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -4168,7 +4756,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1">
+    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +4787,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -4208,9 +4796,9 @@
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4218,7 +4806,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4238,15 +4826,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
@@ -4258,15 +4846,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
@@ -4276,7 +4864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4878,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -4304,7 +4892,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -4318,7 +4906,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1">
+    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -4326,7 +4914,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4349,7 +4937,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
@@ -4359,9 +4947,9 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4369,7 +4957,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,15 +4977,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
@@ -4407,15 +4995,15 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>29</v>
@@ -4423,15 +5011,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
@@ -4439,15 +5027,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
@@ -4455,12 +5043,12 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -4469,7 +5057,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -4477,13 +5065,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -4497,7 +5085,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" thickBot="1">
+    <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4505,7 +5093,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4525,10 +5113,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -4538,9 +5126,9 @@
     <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4548,7 +5136,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4568,18 +5156,18 @@
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>28</v>
@@ -4590,15 +5178,15 @@
       <c r="F3" s="13"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>29</v>
@@ -4607,15 +5195,15 @@
       <c r="F4" s="13"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>29</v>
@@ -4624,15 +5212,15 @@
       <c r="F5" s="13"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
@@ -4641,18 +5229,18 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -4660,18 +5248,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -4679,15 +5267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>28</v>
@@ -4696,32 +5284,32 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>29</v>
@@ -4730,15 +5318,15 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>29</v>
@@ -4747,15 +5335,15 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>28</v>
@@ -4764,18 +5352,18 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -4783,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -4791,14 +5379,14 @@
         <v>18</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -4806,14 +5394,14 @@
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -4828,7 +5416,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1">
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -4836,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>

--- a/repo/12306Cnp.xlsx
+++ b/repo/12306Cnp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="ath_user" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="235">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,18 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(12)</t>
   </si>
   <si>
@@ -214,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ath_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id(权限id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rol_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idt_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idt_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>odr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,22 +409,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dpt_start_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpt_end_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目的地id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trn_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发车时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,12 +508,870 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>是否删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行方式id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型（0：火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，1汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次对应所拥有座位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型（0：火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，1汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别（0：火车，1汽车，2飞机）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>座位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vip特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员信息表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员权益描述8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_out_ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出票(0:未出票，1：已出票）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次空余对应坐席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车次id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>is_delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>是否删</t>
+      <t>是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
     </r>
     <r>
       <rPr>
@@ -564,28 +1382,138 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出行方式id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式名称</t>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位、月）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会员结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>束日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,20 +1521,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正姚体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
     </r>
     <r>
       <rPr>
@@ -617,7 +1541,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建</t>
+      <t>票价(</t>
     </r>
     <r>
       <rPr>
@@ -628,159 +1552,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>型（0：火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，1汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
+      <t>单</t>
     </r>
     <r>
       <rPr>
@@ -791,923 +1563,16 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次对应所拥有座位类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>型（0：火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，1汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类别（0：火车，1汽车，2飞机）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>座位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类别id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vip特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>权</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员信息表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_decript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vp_descript8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员权益描述8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_out_ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>出票(0:未出票，1：已出票）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次空余对应坐席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trn_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车次id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座位id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surplus_ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位、月）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>始日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>束日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>票价(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="方正姚体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>位，元）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seat_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_dtm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>update_dtm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table ath_user(
-                 user_id int NOT NULL AUTO_INCREMENT,
-                 user_name varchar(11) NOT NULL,
-                 user_password varchar(16) NOT NULL,
-                 user_safe_id int NOT NULL unique,
-                 is_delete int default 0,
-                 create_user varchar(12),
-                 create_dtm DateTime,
-                 update_user varchar(12),
-                 update_dtm DateTime,
-                PRIMARY KEY (`user_id`,`user_name`)
-             )ENGINE=InnoDB AUTO_INCREMENT=100086 DEFAULT CHARSET=utf8;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1780,6 +1645,311 @@
                  update_dtm DateTime,
                 PRIMARY KEY (`user_id`)
              )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table vp_user(
+                 vp_id int NOT NULL,
+                 vp_name varchar(12) NOT NULL,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`vp_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp_descript1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table vp_desc(
+                 vp_id int NOT NULL,
+                 vp_descript1 varchar(200),
+                 vp_descript2 varchar(200),
+                 vp_descript3 varchar(200),
+                 vp_descript4 varchar(200),
+                 vp_descript5 varchar(200),
+                 vp_descript6 varchar(200),
+                 vp_descript7 varchar(200),
+                 vp_descript8 varchar(200),
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`vp_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rol_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idt_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpt_start_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpt_end_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table trn_type(
+                 type_id int NOT NULL,
+                 type_name varchar(12) NOT NULL unique,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`type_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn_decript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dtm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus_ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_authorize(
+                 ath_user_id int NOT NULL,
+                 ath_rol_id int NOT NULL,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`ath_user_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_rol(
+                 rol_id int NOT NULL,
+                 rol_name varchar(16) NOT NULL unique,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`rol_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_identity(
+                 idt_id int NOT NULL,
+                 idt_user_id int NOT NULL,
+                 idt_number VARCHAR(18) NOT NULL,
+                 idt_name varchar(12) NOT NULL,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`idt_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table trn_basic_info(
+                 trn_id int NOT NULL,
+                 trn_name varchar(12) NOT NULL,
+                 type_id int NOT NULL,
+                 trn_decript VARCHAR(200),
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`trn_id`,`trn_name`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table trn_count_seat(
+                 trn_id int NOT NULL,
+                 seat_id int NOT NULL,
+                 seat_money Double NOT NULL,
+                 surplus_ticket int NOT NULL DEFAULE 0,
+                 is_delete int NOT NULL DEFAULE 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`trn_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table odr_basic_info(
+                 odr_id varchar(32) NOT NULL,
+                 odr_user_id int NOT NULL,
+                 odr_idt_id int NOT NULL,
+                 odr_type int NOT NULL,
+                 pay_statue int  NOT NULL DEFAULT 0,
+                 is_out_ticket int  NOT NULL DEFAULT 0,
+                 trn_id int NOT NULL,
+                 trn_seat_id int NOT NULL,
+                 dpt_start_number varchar(6) NOT NULL,
+                 dpt_end_number varchar(6) NOT NULL,
+                 trn_dtm DateTime NOT NULL,
+                 is_delete int NOT NULL DEFAULT 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`odr_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table trn_seat_info(
+                 seat_id int NOT NULL,
+                 seat_name varchar(12) NOT NULL,
+                 is_delete int NOT NULL DEFAULT 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`seat_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table trn_info_forseart(
+                 type_id int NOT NULL,
+                 seat_id int NOT NULL,
+                 is_delete int NOT NULL DEFAULT 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`type_id`)
+             )ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table ath_user(
+                 user_id int NOT NULL AUTO_INCREMENT,
+                 user_name varchar(11) NOT NULL,
+                 user_password varchar(16) NOT NULL,
+                 user_safe_id int NOT NULL unique,
+                 is_delete int NOT NULL DEFAULT 0,
+                 create_user varchar(12),
+                 create_dtm DateTime,
+                 update_user varchar(12),
+                 update_dtm DateTime,
+                PRIMARY KEY (`user_id`,`user_name`)
+             )ENGINE=InnoDB AUTO_INCREMENT=100086 DEFAULT CHARSET=utf8;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +2089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1939,6 +2109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,10 +2124,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2259,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2275,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2300,15 +2476,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2323,13 +2499,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2344,13 +2520,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -2367,32 +2543,32 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2406,10 +2582,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2418,13 +2594,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2433,13 +2609,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2448,13 +2624,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2462,177 +2638,177 @@
       <c r="G11" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2647,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A10" sqref="A10:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2665,15 +2841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2692,24 +2868,24 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -2721,13 +2897,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -2743,10 +2919,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2755,13 +2931,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2770,13 +2946,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2785,22 +2961,43 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:XFD25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2809,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2823,15 +3020,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2850,21 +3047,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -2879,16 +3076,16 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>12</v>
@@ -2900,13 +3097,13 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>12</v>
@@ -2917,13 +3114,13 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -2935,10 +3132,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2947,13 +3144,13 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2962,13 +3159,13 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2977,22 +3174,42 @@
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:XFD26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3001,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G31" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3015,15 +3232,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3042,21 +3259,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -3071,16 +3288,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3088,16 +3305,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3110,10 +3327,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3122,13 +3339,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3137,13 +3354,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3152,22 +3369,40 @@
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:XFD23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3176,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3190,15 +3425,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3217,21 +3452,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -3246,13 +3481,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -3263,28 +3498,32 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3293,37 +3532,71 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
+      <c r="C8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:XFD25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3332,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3346,15 +3619,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3373,43 +3646,43 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3417,16 +3690,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3434,30 +3707,32 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3468,13 +3743,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3483,13 +3758,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3498,13 +3773,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3513,22 +3788,44 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:XFD29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3541,7 +3838,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3554,14 +3851,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3580,38 +3877,38 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -3624,10 +3921,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3635,13 +3932,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3649,13 +3946,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3663,209 +3960,209 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3879,10 +4176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3893,15 +4190,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3920,15 +4217,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -3949,13 +4246,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -3968,16 +4265,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3987,16 +4284,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4004,16 +4301,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4021,16 +4318,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4041,10 +4338,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4053,13 +4350,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4068,13 +4365,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4083,133 +4380,43 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G27"/>
+    <mergeCell ref="A16:XFD31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4219,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4233,15 +4440,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4260,21 +4467,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -4289,16 +4496,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4309,10 +4516,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4321,13 +4528,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4336,13 +4543,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4351,22 +4558,42 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:XFD25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4375,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A18" sqref="A18:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4389,15 +4616,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4416,21 +4643,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -4445,13 +4672,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -4460,13 +4687,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4475,13 +4702,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4490,13 +4717,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4505,13 +4732,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4520,13 +4747,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4535,13 +4762,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4550,13 +4777,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4568,10 +4795,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4580,13 +4807,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -4595,13 +4822,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -4610,22 +4837,45 @@
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
+    <row r="18" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A18:XFD35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4634,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4651,14 +4901,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4677,39 +4927,39 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -4719,10 +4969,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4730,13 +4980,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4744,13 +4994,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4758,21 +5008,44 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:XFD28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4781,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4797,14 +5070,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4823,45 +5096,45 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4869,10 +5142,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4880,13 +5153,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4894,13 +5167,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4908,21 +5181,40 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:XFD23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4931,10 +5223,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A12" sqref="A12:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4948,14 +5240,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -4974,71 +5266,71 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -5048,10 +5340,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5059,13 +5351,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5073,13 +5365,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5087,21 +5379,41 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:XFD26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5110,10 +5422,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5127,14 +5439,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5153,43 +5465,43 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
@@ -5197,16 +5509,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
@@ -5214,16 +5526,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -5231,16 +5543,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -5250,16 +5562,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -5269,16 +5581,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -5286,16 +5598,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -5303,16 +5615,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -5320,16 +5632,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
@@ -5337,16 +5649,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -5354,16 +5666,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -5376,10 +5688,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5388,13 +5700,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5403,13 +5715,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5418,22 +5730,54 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A20:XFD46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/repo/12306Cnp.xlsx
+++ b/repo/12306Cnp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -281,7 +281,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -318,7 +318,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -329,7 +329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -370,7 +370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -399,7 +399,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -424,7 +424,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -441,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -477,7 +477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -515,7 +515,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -556,7 +556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -567,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -616,7 +616,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -627,7 +627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -638,7 +638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -649,7 +649,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -660,7 +660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -671,7 +671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -682,7 +682,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -693,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -714,7 +714,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -725,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -762,7 +762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -787,7 +787,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -798,7 +798,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -809,7 +809,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -820,7 +820,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -831,7 +831,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -842,7 +842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -853,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -864,7 +864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -875,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -892,7 +892,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -902,7 +902,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -919,7 +919,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -936,7 +936,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -947,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -985,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1006,7 +1006,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1023,7 +1023,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1040,7 +1040,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1073,7 +1073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1090,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1107,7 +1107,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1152,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1169,7 +1169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1186,7 +1186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1203,7 +1203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1220,7 +1220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1237,7 +1237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1254,7 +1254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1283,7 +1283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1336,7 +1336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1377,7 +1377,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1388,7 +1388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1421,7 +1421,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1432,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1443,7 +1443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1465,7 +1465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1482,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1499,7 +1499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1525,7 +1525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1536,7 +1536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1547,7 +1547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1558,7 +1558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="方正姚体"/>
+        <rFont val="HG明朝B"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1941,8 +1941,8 @@
     <t>create table ath_user(
                  user_id int NOT NULL AUTO_INCREMENT,
                  user_name varchar(11) NOT NULL,
-                 user_password varchar(16) NOT NULL,
-                 user_safe_id int NOT NULL unique,
+                 user_password varchar(32) NOT NULL,
+                 user_safe_id varchar(36) NOT NULL unique,
                  is_delete int NOT NULL DEFAULT 0,
                  create_user varchar(12),
                  create_dtm DateTime,
@@ -1956,18 +1956,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="方正姚体"/>
+      <name val="HG明朝B"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="方正姚体"/>
+      <name val="HG明朝B"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1975,7 +1975,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="方正姚体"/>
+      <name val="HG明朝B"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1983,7 +1983,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="方正姚体"/>
+      <name val="HG明朝B"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2121,18 +2121,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2436,7 +2436,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3020,7 +3020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="19"/>
@@ -3382,23 +3382,23 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -3425,7 +3425,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="19"/>
@@ -3575,24 +3575,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -3619,7 +3619,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B1" s="19"/>
@@ -5743,37 +5743,37 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="23" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
